--- a/data/577 Projects/Final_577Data_UC_transaction_data.xlsx
+++ b/data/577 Projects/Final_577Data_UC_transaction_data.xlsx
@@ -1117,7 +1117,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
